--- a/audit-SEO.xlsx
+++ b/audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\Site web\Starting website\FabienD_4_19042022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011E4427-E343-44C5-82FB-B11C59172EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036119E4-3237-4978-AB24-F18078D5F75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,6 +729,9 @@
       <c r="D9" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -929,9 +932,7 @@
       <c r="D22" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>

--- a/audit-SEO.xlsx
+++ b/audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\Site web\Starting website\FabienD_4_19042022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036119E4-3237-4978-AB24-F18078D5F75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24968042-395D-45F7-96F9-583FBBC65C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>Catégorie</t>
   </si>
@@ -239,6 +239,39 @@
   </si>
   <si>
     <t>meta keywords</t>
+  </si>
+  <si>
+    <t>https://smartkeyword.io/seo-on-page-images-attribut-alt/</t>
+  </si>
+  <si>
+    <t>https://www.webrankinfo.com/dossiers/debutants/meta-keywords</t>
+  </si>
+  <si>
+    <t>https://smartkeyword.io/seo-technique-seo-robots-txt/</t>
+  </si>
+  <si>
+    <t>https://smartkeyword.io/seo-technique-seo-balise-meta-robots/</t>
+  </si>
+  <si>
+    <t>https://www.journaldunet.com/solutions/seo-referencement/1487662-seo-local-comment-etablir-une-strategie-qui-fonctionne/</t>
+  </si>
+  <si>
+    <t>https://naturedigitale.fr/annuaires-referencement/</t>
+  </si>
+  <si>
+    <t>https://emmanuelle-wiesemes.com/ancres-de-liens-seo/</t>
+  </si>
+  <si>
+    <t>https://semji.com/fr/blog/quel-est-linteret-des-balises-h1-h2-h3-pour-votre-seo/</t>
+  </si>
+  <si>
+    <t>https://fr.semrush.com/blog/referencer-les-images-pour-le-seo/</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/advanced/guidelines/hidden-text-links?hl=fr</t>
+  </si>
+  <si>
+    <t>https://digit2go.com/choisir-bonne-typographie-site/</t>
   </si>
 </sst>
 </file>
@@ -545,7 +578,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -653,6 +686,9 @@
         <v>70</v>
       </c>
       <c r="E4" s="6"/>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -670,6 +706,9 @@
       <c r="E5" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -685,6 +724,9 @@
         <v>33</v>
       </c>
       <c r="E6" s="3"/>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -700,6 +742,9 @@
         <v>38</v>
       </c>
       <c r="E7" s="3"/>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -715,6 +760,9 @@
         <v>35</v>
       </c>
       <c r="E8" s="3"/>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -732,6 +780,9 @@
       <c r="E9" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -746,6 +797,9 @@
       <c r="D10" t="s">
         <v>43</v>
       </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -760,6 +814,9 @@
       <c r="D11" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -774,6 +831,9 @@
       <c r="D12" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -791,6 +851,9 @@
       <c r="E13" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -808,6 +871,9 @@
       <c r="E14" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -840,7 +906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -857,7 +923,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -870,8 +936,11 @@
       <c r="D18" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -885,7 +954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -902,7 +971,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -919,7 +988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -934,19 +1003,19 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/audit-SEO.xlsx
+++ b/audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\Site web\Starting website\FabienD_4_19042022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24968042-395D-45F7-96F9-583FBBC65C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03AD6E3-4A30-4BEF-B58B-5DC71B271B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>Catégorie</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>https://digit2go.com/choisir-bonne-typographie-site/</t>
+  </si>
+  <si>
+    <t>https://blog.hubspot.fr/website/qu-est-ce-que-le-cache-dun-navigateur</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/ARIA/forms/Basic_form_hints</t>
+  </si>
+  <si>
+    <t>https://accessibility.belgium.be/fr/articles/techniques-et-codes/indiquez-la-langue-de-la-page-web-dans-le-code</t>
   </si>
 </sst>
 </file>
@@ -578,7 +587,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -905,6 +914,9 @@
       <c r="D16" t="s">
         <v>55</v>
       </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -987,6 +999,9 @@
       <c r="E21" s="7" t="s">
         <v>67</v>
       </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1002,6 +1017,9 @@
         <v>24</v>
       </c>
       <c r="E22" s="7"/>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
